--- a/tests/single region tests/SingleRegoinTestSmallVariationTemp.xlsx
+++ b/tests/single region tests/SingleRegoinTestSmallVariationTemp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sample and Time Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="125">
   <si>
     <t xml:space="preserve">Sampling Variables Inputs</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t xml:space="preserve">Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attraction Factor 1</t>
   </si>
 </sst>
 </file>
@@ -1228,9 +1225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1015920</xdr:colOff>
+      <xdr:colOff>1015560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1240,7 +1237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14045040" y="901800"/>
-          <a:ext cx="9483840" cy="8110800"/>
+          <a:ext cx="9486720" cy="8110440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,9 +1704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3251880</xdr:colOff>
+      <xdr:colOff>3251520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1719,7 +1716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12287520" y="428760"/>
-          <a:ext cx="3081240" cy="651600"/>
+          <a:ext cx="3080880" cy="651240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1930,9 +1927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2329200</xdr:colOff>
+      <xdr:colOff>2328840</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>199440</xdr:rowOff>
+      <xdr:rowOff>199080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1946,7 +1943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16815600" y="10820880"/>
-          <a:ext cx="2328120" cy="745560"/>
+          <a:ext cx="2327760" cy="745200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,7 +1964,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4080240</xdr:colOff>
+      <xdr:colOff>4079880</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
@@ -1979,7 +1976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12191040" y="2240640"/>
-          <a:ext cx="8703720" cy="3200760"/>
+          <a:ext cx="8703360" cy="3200760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2497,9 +2494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2509,7 +2506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8176320" y="2413440"/>
-          <a:ext cx="3998880" cy="592920"/>
+          <a:ext cx="3998520" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2639,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1129680</xdr:colOff>
+      <xdr:colOff>1129320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2651,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8701560" y="1600200"/>
-          <a:ext cx="2927160" cy="796680"/>
+          <a:ext cx="2926800" cy="796320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2719,8 +2716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="21197520" y="203040"/>
-          <a:ext cx="1004040" cy="360"/>
+          <a:off x="21203280" y="203040"/>
+          <a:ext cx="1004760" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2764,8 +2761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="32154120" y="203040"/>
-          <a:ext cx="1175400" cy="360"/>
+          <a:off x="32166360" y="203040"/>
+          <a:ext cx="1175760" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2809,8 +2806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="42600600" y="203040"/>
-          <a:ext cx="839160" cy="360"/>
+          <a:off x="42618960" y="203040"/>
+          <a:ext cx="839880" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2854,8 +2851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="53079480" y="203040"/>
-          <a:ext cx="1281240" cy="360"/>
+          <a:off x="53104320" y="203040"/>
+          <a:ext cx="1281600" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2899,8 +2896,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="64463400" y="203040"/>
-          <a:ext cx="914400" cy="360"/>
+          <a:off x="64495080" y="203040"/>
+          <a:ext cx="915120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2944,8 +2941,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="74439720" y="203040"/>
-          <a:ext cx="1070640" cy="360"/>
+          <a:off x="74477880" y="203040"/>
+          <a:ext cx="1071000" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2989,8 +2986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="83949480" y="203040"/>
-          <a:ext cx="764640" cy="360"/>
+          <a:off x="83993040" y="203040"/>
+          <a:ext cx="765720" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3034,8 +3031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="93998880" y="203040"/>
-          <a:ext cx="1281240" cy="360"/>
+          <a:off x="94048920" y="203040"/>
+          <a:ext cx="1281960" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3079,8 +3076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="105382800" y="203040"/>
-          <a:ext cx="914400" cy="360"/>
+          <a:off x="105440040" y="203040"/>
+          <a:ext cx="915120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3124,8 +3121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="115358760" y="203040"/>
-          <a:ext cx="1070640" cy="360"/>
+          <a:off x="115422120" y="203040"/>
+          <a:ext cx="1071360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3169,8 +3166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="124868520" y="203040"/>
-          <a:ext cx="764640" cy="360"/>
+          <a:off x="124937640" y="203040"/>
+          <a:ext cx="765360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3214,8 +3211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="135278640" y="203040"/>
-          <a:ext cx="1364400" cy="360"/>
+          <a:off x="135354240" y="203040"/>
+          <a:ext cx="1365840" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3259,8 +3256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="147386160" y="203040"/>
-          <a:ext cx="972720" cy="360"/>
+          <a:off x="147469680" y="203040"/>
+          <a:ext cx="973080" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3304,8 +3301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="157998240" y="203040"/>
-          <a:ext cx="1138320" cy="360"/>
+          <a:off x="158088600" y="203040"/>
+          <a:ext cx="1138680" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3349,8 +3346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="168110640" y="203040"/>
-          <a:ext cx="813240" cy="360"/>
+          <a:off x="168206400" y="203040"/>
+          <a:ext cx="813960" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3394,8 +3391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="178257600" y="203040"/>
-          <a:ext cx="1242720" cy="360"/>
+          <a:off x="178359840" y="203040"/>
+          <a:ext cx="1244160" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3439,8 +3436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="189280440" y="203040"/>
-          <a:ext cx="885960" cy="360"/>
+          <a:off x="189389520" y="203040"/>
+          <a:ext cx="886680" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3484,8 +3481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="198940680" y="203040"/>
-          <a:ext cx="1036440" cy="360"/>
+          <a:off x="199056240" y="203040"/>
+          <a:ext cx="1037160" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3529,7 +3526,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="208149120" y="203040"/>
+          <a:off x="208270440" y="203040"/>
           <a:ext cx="737640" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3574,8 +3571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="217877760" y="203040"/>
-          <a:ext cx="1239840" cy="360"/>
+          <a:off x="218004480" y="203040"/>
+          <a:ext cx="1240920" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3619,8 +3616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="228899880" y="203040"/>
-          <a:ext cx="885960" cy="360"/>
+          <a:off x="229034160" y="203040"/>
+          <a:ext cx="886320" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3664,8 +3661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="238557600" y="203040"/>
-          <a:ext cx="1036440" cy="360"/>
+          <a:off x="238697280" y="203040"/>
+          <a:ext cx="1037160" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3709,8 +3706,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="247765680" y="203040"/>
-          <a:ext cx="740160" cy="360"/>
+          <a:off x="247911120" y="203040"/>
+          <a:ext cx="740880" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3754,8 +3751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="258134040" y="203040"/>
-          <a:ext cx="1386360" cy="360"/>
+          <a:off x="258285960" y="203040"/>
+          <a:ext cx="1387440" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3799,7 +3796,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="270439560" y="203040"/>
+          <a:off x="270599760" y="203040"/>
           <a:ext cx="985680" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3844,8 +3841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="281219760" y="203040"/>
-          <a:ext cx="1156680" cy="360"/>
+          <a:off x="281386080" y="203040"/>
+          <a:ext cx="1157400" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3889,8 +3886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="291498120" y="203040"/>
-          <a:ext cx="825840" cy="360"/>
+          <a:off x="291670560" y="203040"/>
+          <a:ext cx="826920" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3934,8 +3931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="301808160" y="203040"/>
-          <a:ext cx="1260000" cy="360"/>
+          <a:off x="301987080" y="203040"/>
+          <a:ext cx="1261080" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3979,8 +3976,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="313008840" y="203040"/>
-          <a:ext cx="899640" cy="360"/>
+          <a:off x="313194960" y="203040"/>
+          <a:ext cx="900360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4024,8 +4021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="322824240" y="203040"/>
-          <a:ext cx="1053000" cy="360"/>
+          <a:off x="323016480" y="203040"/>
+          <a:ext cx="1053720" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4069,8 +4066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="332181000" y="203040"/>
-          <a:ext cx="752040" cy="360"/>
+          <a:off x="332379000" y="203040"/>
+          <a:ext cx="752760" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4114,8 +4111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="342068400" y="203040"/>
-          <a:ext cx="1260360" cy="360"/>
+          <a:off x="342272880" y="203040"/>
+          <a:ext cx="1261080" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4159,8 +4156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="353265840" y="203040"/>
-          <a:ext cx="900360" cy="360"/>
+          <a:off x="353476800" y="203040"/>
+          <a:ext cx="900720" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4204,8 +4201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="363081600" y="203040"/>
-          <a:ext cx="1053000" cy="360"/>
+          <a:off x="363299040" y="203040"/>
+          <a:ext cx="1053360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4249,8 +4246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="372438000" y="203040"/>
-          <a:ext cx="752400" cy="360"/>
+          <a:off x="372660840" y="203040"/>
+          <a:ext cx="752760" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4294,8 +4291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="382680000" y="203040"/>
-          <a:ext cx="1342440" cy="360"/>
+          <a:off x="382909320" y="203040"/>
+          <a:ext cx="1343880" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4339,8 +4336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="394593120" y="203040"/>
-          <a:ext cx="956520" cy="360"/>
+          <a:off x="394830000" y="203040"/>
+          <a:ext cx="957240" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4384,8 +4381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="405031320" y="203040"/>
-          <a:ext cx="1120320" cy="360"/>
+          <a:off x="405274680" y="203040"/>
+          <a:ext cx="1120680" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4429,8 +4426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="414983520" y="203040"/>
-          <a:ext cx="799920" cy="360"/>
+          <a:off x="415233000" y="203040"/>
+          <a:ext cx="800640" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4474,8 +4471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="424966680" y="203040"/>
-          <a:ext cx="1220400" cy="360"/>
+          <a:off x="425222640" y="203040"/>
+          <a:ext cx="1221120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4519,8 +4516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="435809880" y="203040"/>
-          <a:ext cx="871200" cy="360"/>
+          <a:off x="436071960" y="203040"/>
+          <a:ext cx="872280" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4564,8 +4561,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="445311720" y="203040"/>
-          <a:ext cx="1019880" cy="360"/>
+          <a:off x="445579920" y="203040"/>
+          <a:ext cx="1020240" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4609,8 +4606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="454371480" y="203040"/>
-          <a:ext cx="728640" cy="360"/>
+          <a:off x="454645080" y="203040"/>
+          <a:ext cx="729360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4654,8 +4651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="463945680" y="203040"/>
-          <a:ext cx="1220400" cy="360"/>
+          <a:off x="464225760" y="203040"/>
+          <a:ext cx="1220760" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4699,8 +4696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="474788520" y="203040"/>
-          <a:ext cx="871200" cy="360"/>
+          <a:off x="475075080" y="203040"/>
+          <a:ext cx="871560" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4744,8 +4741,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="484292880" y="203040"/>
-          <a:ext cx="1019160" cy="360"/>
+          <a:off x="484585560" y="203040"/>
+          <a:ext cx="1019880" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4789,8 +4786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="493349760" y="203040"/>
-          <a:ext cx="728640" cy="360"/>
+          <a:off x="493647480" y="203040"/>
+          <a:ext cx="729360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4834,8 +4831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="503650800" y="203040"/>
-          <a:ext cx="1386360" cy="360"/>
+          <a:off x="503955000" y="203040"/>
+          <a:ext cx="1387800" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4879,7 +4876,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="515957040" y="203040"/>
+          <a:off x="516269520" y="203040"/>
           <a:ext cx="985680" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4924,8 +4921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="526737960" y="203040"/>
-          <a:ext cx="1156680" cy="360"/>
+          <a:off x="527056920" y="203040"/>
+          <a:ext cx="1157040" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4969,8 +4966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="537017040" y="203040"/>
-          <a:ext cx="825840" cy="360"/>
+          <a:off x="537342120" y="203040"/>
+          <a:ext cx="826560" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5014,8 +5011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="547327800" y="203040"/>
-          <a:ext cx="1260360" cy="360"/>
+          <a:off x="547659360" y="203040"/>
+          <a:ext cx="1261080" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5059,8 +5056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="558529200" y="203040"/>
-          <a:ext cx="899640" cy="360"/>
+          <a:off x="558867600" y="203040"/>
+          <a:ext cx="900360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5104,8 +5101,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="568345320" y="203040"/>
-          <a:ext cx="1053360" cy="360"/>
+          <a:off x="568690200" y="203040"/>
+          <a:ext cx="1053720" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5149,8 +5146,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="577702440" y="203040"/>
-          <a:ext cx="752400" cy="360"/>
+          <a:off x="578052720" y="203040"/>
+          <a:ext cx="753480" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5194,8 +5191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="587590560" y="203040"/>
-          <a:ext cx="1260360" cy="360"/>
+          <a:off x="587947320" y="203040"/>
+          <a:ext cx="1261440" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5239,7 +5236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="598791960" y="203040"/>
+          <a:off x="599155560" y="203040"/>
           <a:ext cx="897120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5284,8 +5281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="608605560" y="203040"/>
-          <a:ext cx="1053000" cy="360"/>
+          <a:off x="608975280" y="203040"/>
+          <a:ext cx="1053360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5329,8 +5326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="617962680" y="203040"/>
-          <a:ext cx="752400" cy="360"/>
+          <a:off x="618337800" y="203040"/>
+          <a:ext cx="753120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5374,8 +5371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="628205400" y="203040"/>
-          <a:ext cx="1342440" cy="360"/>
+          <a:off x="628587000" y="203040"/>
+          <a:ext cx="1343880" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5419,8 +5416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="640119240" y="203040"/>
-          <a:ext cx="956880" cy="360"/>
+          <a:off x="640508400" y="203040"/>
+          <a:ext cx="957600" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5464,8 +5461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="650558520" y="203040"/>
-          <a:ext cx="1119600" cy="360"/>
+          <a:off x="650954160" y="203040"/>
+          <a:ext cx="1119960" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5509,8 +5506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="660511080" y="203040"/>
-          <a:ext cx="799920" cy="360"/>
+          <a:off x="660913200" y="203040"/>
+          <a:ext cx="800280" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5554,8 +5551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="670494960" y="203040"/>
-          <a:ext cx="1220760" cy="360"/>
+          <a:off x="670903560" y="203040"/>
+          <a:ext cx="1221120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5599,8 +5596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="681338880" y="203040"/>
-          <a:ext cx="871200" cy="360"/>
+          <a:off x="681753600" y="203040"/>
+          <a:ext cx="871920" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5644,8 +5641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="690841080" y="203040"/>
-          <a:ext cx="1020240" cy="360"/>
+          <a:off x="691261560" y="203040"/>
+          <a:ext cx="1020600" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5689,8 +5686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="699901560" y="203040"/>
-          <a:ext cx="729000" cy="360"/>
+          <a:off x="700327800" y="203040"/>
+          <a:ext cx="729360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5734,8 +5731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="709476840" y="203040"/>
-          <a:ext cx="1220400" cy="360"/>
+          <a:off x="709909200" y="203040"/>
+          <a:ext cx="1221120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5779,8 +5776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="720320040" y="203040"/>
-          <a:ext cx="871200" cy="360"/>
+          <a:off x="720758880" y="203040"/>
+          <a:ext cx="871920" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5824,8 +5821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="729825120" y="203040"/>
-          <a:ext cx="1019880" cy="360"/>
+          <a:off x="730270080" y="203040"/>
+          <a:ext cx="1020960" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5869,8 +5866,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="738883080" y="203040"/>
-          <a:ext cx="728280" cy="360"/>
+          <a:off x="739333080" y="203040"/>
+          <a:ext cx="729360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5914,7 +5911,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="754313040" y="196560"/>
+          <a:off x="754773480" y="196560"/>
           <a:ext cx="985680" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5959,8 +5956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="765093600" y="196560"/>
-          <a:ext cx="1156680" cy="360"/>
+          <a:off x="765560160" y="196560"/>
+          <a:ext cx="1157400" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6004,8 +6001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="775372320" y="196560"/>
-          <a:ext cx="826560" cy="360"/>
+          <a:off x="775845360" y="196560"/>
+          <a:ext cx="827280" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6049,8 +6046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="785683440" y="196560"/>
-          <a:ext cx="1260360" cy="360"/>
+          <a:off x="786162960" y="196560"/>
+          <a:ext cx="1261080" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6094,8 +6091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="796884480" y="196560"/>
-          <a:ext cx="900360" cy="360"/>
+          <a:off x="797370840" y="196560"/>
+          <a:ext cx="901080" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6139,8 +6136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="806701320" y="196560"/>
-          <a:ext cx="1052640" cy="360"/>
+          <a:off x="807193800" y="196560"/>
+          <a:ext cx="1053720" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6184,8 +6181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="816057720" y="196560"/>
-          <a:ext cx="752760" cy="360"/>
+          <a:off x="816556320" y="196560"/>
+          <a:ext cx="753120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6229,8 +6226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="825946200" y="196560"/>
-          <a:ext cx="1260360" cy="360"/>
+          <a:off x="826451280" y="196560"/>
+          <a:ext cx="1260720" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6274,7 +6271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="837147240" y="196560"/>
+          <a:off x="837659160" y="196560"/>
           <a:ext cx="897120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6319,8 +6316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="846961200" y="196560"/>
-          <a:ext cx="1053360" cy="360"/>
+          <a:off x="847478880" y="196560"/>
+          <a:ext cx="1053720" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6364,8 +6361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="856318320" y="196560"/>
-          <a:ext cx="752400" cy="360"/>
+          <a:off x="856841400" y="196560"/>
+          <a:ext cx="753120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6409,8 +6406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="866561400" y="196560"/>
-          <a:ext cx="1342080" cy="360"/>
+          <a:off x="867090960" y="196560"/>
+          <a:ext cx="1343520" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6454,8 +6451,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="878474880" y="196560"/>
-          <a:ext cx="956880" cy="360"/>
+          <a:off x="879012360" y="196560"/>
+          <a:ext cx="957240" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6499,8 +6496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="888914160" y="196560"/>
-          <a:ext cx="1119240" cy="360"/>
+          <a:off x="889457400" y="196560"/>
+          <a:ext cx="1120320" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6544,8 +6541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="898866720" y="196560"/>
-          <a:ext cx="799920" cy="360"/>
+          <a:off x="899416440" y="196560"/>
+          <a:ext cx="801000" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6589,8 +6586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="908850960" y="196560"/>
-          <a:ext cx="1220400" cy="360"/>
+          <a:off x="909407160" y="196560"/>
+          <a:ext cx="1221120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6634,8 +6631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="919694160" y="196560"/>
-          <a:ext cx="871560" cy="360"/>
+          <a:off x="920256840" y="196560"/>
+          <a:ext cx="872280" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6679,8 +6676,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="929197080" y="196560"/>
-          <a:ext cx="1019880" cy="360"/>
+          <a:off x="929765520" y="196560"/>
+          <a:ext cx="1020240" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6724,8 +6721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="938257560" y="196560"/>
-          <a:ext cx="728280" cy="360"/>
+          <a:off x="938831400" y="196560"/>
+          <a:ext cx="729360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6769,8 +6766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="947832480" y="196560"/>
-          <a:ext cx="1220040" cy="360"/>
+          <a:off x="948412800" y="196560"/>
+          <a:ext cx="1220760" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6814,8 +6811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="958675680" y="196560"/>
-          <a:ext cx="871560" cy="360"/>
+          <a:off x="959262480" y="196560"/>
+          <a:ext cx="871920" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6859,8 +6856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="968180760" y="196560"/>
-          <a:ext cx="1019880" cy="360"/>
+          <a:off x="968774040" y="196560"/>
+          <a:ext cx="1020240" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6904,8 +6901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="977238360" y="196560"/>
-          <a:ext cx="728640" cy="360"/>
+          <a:off x="977836680" y="196560"/>
+          <a:ext cx="729000" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6949,8 +6946,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="23465520" y="203040"/>
-          <a:ext cx="1052640" cy="360"/>
+          <a:off x="23472360" y="203040"/>
+          <a:ext cx="1053000" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6994,8 +6991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="35719200" y="203040"/>
-          <a:ext cx="1057680" cy="360"/>
+          <a:off x="35733240" y="203040"/>
+          <a:ext cx="1058400" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7039,8 +7036,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="46971720" y="203040"/>
-          <a:ext cx="1057680" cy="360"/>
+          <a:off x="46992600" y="203040"/>
+          <a:ext cx="1058400" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7078,9 +7075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7090,7 +7087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13187880" y="3353760"/>
-          <a:ext cx="9334080" cy="3667320"/>
+          <a:ext cx="9339480" cy="3666960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7618,9 +7615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7630,7 +7627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12946320" y="677520"/>
-          <a:ext cx="4085280" cy="997200"/>
+          <a:ext cx="4087440" cy="996840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7737,9 +7734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2624400</xdr:colOff>
+      <xdr:colOff>2624040</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7749,7 +7746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8762040" y="16141680"/>
-          <a:ext cx="5154480" cy="808920"/>
+          <a:ext cx="5154120" cy="808560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7851,9 +7848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1736640</xdr:colOff>
+      <xdr:colOff>1736280</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7863,7 +7860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19553760" y="6375960"/>
-          <a:ext cx="4329720" cy="363600"/>
+          <a:ext cx="4329360" cy="363240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7935,9 +7932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7947,7 +7944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10204560" y="4597200"/>
-          <a:ext cx="6964560" cy="1684800"/>
+          <a:ext cx="6964920" cy="1684440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8149,9 +8146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6881040</xdr:colOff>
+      <xdr:colOff>6880680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8161,7 +8158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10153440" y="3454200"/>
-          <a:ext cx="5814360" cy="694080"/>
+          <a:ext cx="5814000" cy="693720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8268,9 +8265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>339120</xdr:colOff>
+      <xdr:colOff>338760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8280,7 +8277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12049920" y="3162240"/>
-          <a:ext cx="5149080" cy="414720"/>
+          <a:ext cx="5151600" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8392,9 +8389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8404,7 +8401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062520" y="1307880"/>
-          <a:ext cx="3871440" cy="440280"/>
+          <a:ext cx="3873600" cy="439920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8461,9 +8458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>466200</xdr:colOff>
+      <xdr:colOff>465840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8473,7 +8470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12088080" y="2235240"/>
-          <a:ext cx="5238000" cy="732240"/>
+          <a:ext cx="5240520" cy="731880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8541,7 +8538,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25307280" y="405360"/>
+          <a:off x="25314840" y="405360"/>
           <a:ext cx="586080" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8586,7 +8583,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26514000" y="786240"/>
+          <a:off x="26522280" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8631,7 +8628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37583640" y="405360"/>
+          <a:off x="37598760" y="405360"/>
           <a:ext cx="586080" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8676,7 +8673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38789280" y="786240"/>
+          <a:off x="38805120" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8721,7 +8718,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="49858920" y="405360"/>
+          <a:off x="49881960" y="405360"/>
           <a:ext cx="586080" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8766,7 +8763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51065280" y="786240"/>
+          <a:off x="51088680" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8811,8 +8808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63740880" y="406440"/>
-          <a:ext cx="762840" cy="5040"/>
+          <a:off x="63772200" y="406440"/>
+          <a:ext cx="763200" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8856,7 +8853,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65306880" y="787320"/>
+          <a:off x="65339280" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8901,7 +8898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="77519160" y="405360"/>
+          <a:off x="77559120" y="405360"/>
           <a:ext cx="528120" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8946,7 +8943,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78606720" y="786240"/>
+          <a:off x="78647400" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8991,7 +8988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="88580880" y="405360"/>
+          <a:off x="88628040" y="405360"/>
           <a:ext cx="528120" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9036,7 +9033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="89668080" y="786240"/>
+          <a:off x="89715600" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9081,8 +9078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99639720" y="405360"/>
-          <a:ext cx="531000" cy="4680"/>
+          <a:off x="99693000" y="405360"/>
+          <a:ext cx="531720" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9126,7 +9123,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="100729440" y="786240"/>
+          <a:off x="100783800" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9171,8 +9168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="112844160" y="406440"/>
-          <a:ext cx="762840" cy="5040"/>
+          <a:off x="112905720" y="406440"/>
+          <a:ext cx="763560" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9216,7 +9213,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114410520" y="787320"/>
+          <a:off x="114473160" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9261,7 +9258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="126622800" y="405360"/>
+          <a:off x="126693360" y="405360"/>
           <a:ext cx="527760" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9306,7 +9303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127709640" y="786240"/>
+          <a:off x="127780560" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9351,7 +9348,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="137684160" y="405360"/>
+          <a:off x="137761560" y="405360"/>
           <a:ext cx="528120" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9396,7 +9393,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="138771360" y="786240"/>
+          <a:off x="138849480" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9441,8 +9438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="148743000" y="405360"/>
-          <a:ext cx="530640" cy="4680"/>
+          <a:off x="148826880" y="405360"/>
+          <a:ext cx="531000" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9486,7 +9483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149832720" y="786240"/>
+          <a:off x="149917680" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9531,8 +9528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="162660600" y="406440"/>
-          <a:ext cx="839880" cy="5040"/>
+          <a:off x="162753480" y="406440"/>
+          <a:ext cx="840240" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9576,7 +9573,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="164385000" y="787320"/>
+          <a:off x="164478960" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9621,7 +9618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177835320" y="405360"/>
+          <a:off x="177937560" y="405360"/>
           <a:ext cx="581760" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9666,7 +9663,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="179032680" y="786240"/>
+          <a:off x="179135640" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9711,7 +9708,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190018800" y="405360"/>
+          <a:off x="190128600" y="405360"/>
           <a:ext cx="581760" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9756,7 +9753,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="191215800" y="786240"/>
+          <a:off x="191325960" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9801,7 +9798,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="202183920" y="405360"/>
+          <a:off x="202296960" y="405360"/>
           <a:ext cx="581760" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9846,7 +9843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203381280" y="786240"/>
+          <a:off x="203495040" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9891,8 +9888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="215961480" y="406440"/>
-          <a:ext cx="757080" cy="5040"/>
+          <a:off x="216082800" y="406440"/>
+          <a:ext cx="757800" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9936,7 +9933,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="217515600" y="787320"/>
+          <a:off x="217638000" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9981,8 +9978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229633560" y="405360"/>
-          <a:ext cx="526680" cy="4680"/>
+          <a:off x="229763160" y="405360"/>
+          <a:ext cx="527400" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10026,7 +10023,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230712480" y="786240"/>
+          <a:off x="230842800" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10071,8 +10068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="240611760" y="405360"/>
-          <a:ext cx="526680" cy="4680"/>
+          <a:off x="240748560" y="405360"/>
+          <a:ext cx="527040" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10116,7 +10113,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241690320" y="786240"/>
+          <a:off x="241827480" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10161,7 +10158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="251589960" y="405360"/>
+          <a:off x="251733600" y="405360"/>
           <a:ext cx="524160" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10206,7 +10203,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252668880" y="786240"/>
+          <a:off x="252812880" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10251,7 +10248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="264694680" y="406440"/>
+          <a:off x="264846600" y="406440"/>
           <a:ext cx="754920" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10296,7 +10293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266246640" y="787320"/>
+          <a:off x="266398920" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10341,8 +10338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="278367120" y="405360"/>
-          <a:ext cx="526320" cy="4680"/>
+          <a:off x="278527320" y="405360"/>
+          <a:ext cx="526680" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10386,7 +10383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="279445680" y="786240"/>
+          <a:off x="279606240" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10431,7 +10428,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="289344960" y="405360"/>
+          <a:off x="289512000" y="405360"/>
           <a:ext cx="524160" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10476,7 +10473,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="290424240" y="786240"/>
+          <a:off x="290592000" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10521,7 +10518,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="300323160" y="405360"/>
+          <a:off x="300497400" y="405360"/>
           <a:ext cx="524160" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10566,7 +10563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301402080" y="786240"/>
+          <a:off x="301576680" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10611,8 +10608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314112600" y="406440"/>
-          <a:ext cx="831240" cy="5040"/>
+          <a:off x="314295120" y="406440"/>
+          <a:ext cx="831600" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10656,7 +10653,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="315819360" y="787320"/>
+          <a:off x="316002600" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10701,7 +10698,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="329132160" y="405360"/>
+          <a:off x="329323680" y="405360"/>
           <a:ext cx="576000" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10746,7 +10743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330316920" y="786240"/>
+          <a:off x="330509520" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10791,8 +10788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="341188920" y="405360"/>
-          <a:ext cx="577800" cy="4680"/>
+          <a:off x="341387640" y="405360"/>
+          <a:ext cx="578520" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10836,7 +10833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342375840" y="786240"/>
+          <a:off x="342575640" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10881,8 +10878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="353247120" y="405360"/>
-          <a:ext cx="578160" cy="4680"/>
+          <a:off x="353453400" y="405360"/>
+          <a:ext cx="578880" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10926,7 +10923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="354432240" y="786240"/>
+          <a:off x="354639240" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10971,7 +10968,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="366886440" y="406440"/>
+          <a:off x="367101720" y="406440"/>
           <a:ext cx="746640" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11016,7 +11013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368421480" y="787320"/>
+          <a:off x="368637480" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11061,7 +11058,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380418840" y="405360"/>
+          <a:off x="380642400" y="405360"/>
           <a:ext cx="518760" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11106,7 +11103,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381486600" y="786240"/>
+          <a:off x="381710520" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11151,7 +11148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="391266720" y="405360"/>
+          <a:off x="391492800" y="405360"/>
           <a:ext cx="518760" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11196,7 +11193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392331960" y="786240"/>
+          <a:off x="392558040" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11241,7 +11238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="402130080" y="405360"/>
+          <a:off x="402362640" y="405360"/>
           <a:ext cx="518760" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11286,7 +11283,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="403198200" y="786240"/>
+          <a:off x="403431120" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11331,7 +11328,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="415101240" y="406440"/>
+          <a:off x="415342080" y="406440"/>
           <a:ext cx="746640" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11376,7 +11373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="416637000" y="787320"/>
+          <a:off x="416878200" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11421,7 +11418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428633640" y="405360"/>
+          <a:off x="428882760" y="405360"/>
           <a:ext cx="518400" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11466,7 +11463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="429701400" y="786240"/>
+          <a:off x="429950880" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11511,8 +11508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="439496640" y="405360"/>
-          <a:ext cx="521280" cy="4680"/>
+          <a:off x="439752240" y="405360"/>
+          <a:ext cx="521640" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11556,7 +11553,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="440564760" y="786240"/>
+          <a:off x="440820720" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11601,8 +11598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="450362880" y="405360"/>
-          <a:ext cx="521280" cy="4680"/>
+          <a:off x="450625320" y="405360"/>
+          <a:ext cx="521640" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11646,7 +11643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="451430280" y="786240"/>
+          <a:off x="451693080" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11691,8 +11688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="464031360" y="406440"/>
-          <a:ext cx="825120" cy="5040"/>
+          <a:off x="464302080" y="406440"/>
+          <a:ext cx="825480" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11736,7 +11733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="465725520" y="787320"/>
+          <a:off x="465997320" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11781,8 +11778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="478938240" y="405360"/>
-          <a:ext cx="573480" cy="4680"/>
+          <a:off x="479218320" y="405360"/>
+          <a:ext cx="574200" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11826,7 +11823,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="480114000" y="786240"/>
+          <a:off x="480394800" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11871,7 +11868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="490906080" y="405360"/>
+          <a:off x="491193720" y="405360"/>
           <a:ext cx="571320" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11916,7 +11913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="492081840" y="786240"/>
+          <a:off x="492370200" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11961,8 +11958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="502871400" y="405360"/>
-          <a:ext cx="573840" cy="4680"/>
+          <a:off x="503166240" y="405360"/>
+          <a:ext cx="574200" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12006,7 +12003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504049680" y="786240"/>
+          <a:off x="504345600" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12051,7 +12048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="516408120" y="406440"/>
+          <a:off x="516711600" y="406440"/>
           <a:ext cx="740880" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12096,7 +12093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="517932000" y="787320"/>
+          <a:off x="518235840" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12141,7 +12138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="529837920" y="405360"/>
+          <a:off x="530149680" y="405360"/>
           <a:ext cx="514800" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12186,7 +12183,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="530898120" y="786240"/>
+          <a:off x="531210600" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12231,8 +12228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="540619920" y="405360"/>
-          <a:ext cx="517320" cy="4680"/>
+          <a:off x="540938160" y="405360"/>
+          <a:ext cx="517680" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12276,7 +12273,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="541679400" y="786240"/>
+          <a:off x="541998000" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12321,7 +12318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="551403720" y="405360"/>
+          <a:off x="551728800" y="405360"/>
           <a:ext cx="514800" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12366,7 +12363,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552463920" y="786240"/>
+          <a:off x="552789720" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12411,8 +12408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="564274440" y="406440"/>
-          <a:ext cx="743760" cy="5040"/>
+          <a:off x="564607080" y="406440"/>
+          <a:ext cx="744480" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12456,7 +12453,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="565801200" y="787320"/>
+          <a:off x="566135280" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12501,7 +12498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="577707480" y="405360"/>
+          <a:off x="578049120" y="405360"/>
           <a:ext cx="514440" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12546,7 +12543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="578767320" y="786240"/>
+          <a:off x="579109680" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12591,8 +12588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="588489120" y="405360"/>
-          <a:ext cx="516960" cy="4680"/>
+          <a:off x="588836880" y="405360"/>
+          <a:ext cx="518040" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12636,7 +12633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="589548600" y="786240"/>
+          <a:off x="589897440" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12681,7 +12678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="599273280" y="405360"/>
+          <a:off x="599628240" y="405360"/>
           <a:ext cx="514800" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12726,7 +12723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600332760" y="786240"/>
+          <a:off x="600688440" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12771,8 +12768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612845640" y="406440"/>
-          <a:ext cx="819360" cy="5040"/>
+          <a:off x="613208880" y="406440"/>
+          <a:ext cx="820080" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12816,7 +12813,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="614528280" y="787320"/>
+          <a:off x="614892600" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12861,8 +12858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627649920" y="405360"/>
-          <a:ext cx="570600" cy="4680"/>
+          <a:off x="628022160" y="405360"/>
+          <a:ext cx="570960" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12906,7 +12903,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628818480" y="786240"/>
+          <a:off x="629191080" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12951,8 +12948,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="639538200" y="405360"/>
-          <a:ext cx="570600" cy="4680"/>
+          <a:off x="639918000" y="405360"/>
+          <a:ext cx="570960" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12996,7 +12993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="640706760" y="786240"/>
+          <a:off x="641086920" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13041,7 +13038,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="651426120" y="405360"/>
+          <a:off x="651813480" y="405360"/>
           <a:ext cx="567360" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13086,7 +13083,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="652594680" y="786240"/>
+          <a:off x="652982760" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13131,7 +13128,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="664870320" y="406440"/>
+          <a:off x="665265600" y="406440"/>
           <a:ext cx="735840" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13176,7 +13173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666383400" y="787320"/>
+          <a:off x="666779760" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13221,7 +13218,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="678210840" y="405360"/>
+          <a:off x="678614760" y="405360"/>
           <a:ext cx="511560" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13266,7 +13263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="679263480" y="786240"/>
+          <a:off x="679668120" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13311,8 +13308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688920480" y="405360"/>
-          <a:ext cx="513720" cy="4680"/>
+          <a:off x="689330520" y="405360"/>
+          <a:ext cx="514440" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13356,7 +13353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="689973120" y="786240"/>
+          <a:off x="690383880" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13401,7 +13398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="699633000" y="405360"/>
+          <a:off x="700050240" y="405360"/>
           <a:ext cx="511200" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13446,7 +13443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="700684920" y="786240"/>
+          <a:off x="701102880" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13491,8 +13488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="712417320" y="406440"/>
-          <a:ext cx="739080" cy="5040"/>
+          <a:off x="712842120" y="406440"/>
+          <a:ext cx="739800" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13536,7 +13533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="713934360" y="787320"/>
+          <a:off x="714360240" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13581,8 +13578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="725758200" y="405360"/>
-          <a:ext cx="513720" cy="4680"/>
+          <a:off x="726191280" y="405360"/>
+          <a:ext cx="514440" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13626,7 +13623,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="726810840" y="786240"/>
+          <a:off x="727244640" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13671,7 +13668,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="736470360" y="405360"/>
+          <a:off x="736910640" y="405360"/>
           <a:ext cx="511200" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13716,7 +13713,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="737523360" y="786240"/>
+          <a:off x="737964000" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13761,8 +13758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="747180000" y="405360"/>
-          <a:ext cx="514080" cy="4680"/>
+          <a:off x="747626400" y="405360"/>
+          <a:ext cx="514800" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13806,7 +13803,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="748232640" y="786240"/>
+          <a:off x="748679760" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13851,8 +13848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="760655880" y="406440"/>
-          <a:ext cx="812880" cy="5040"/>
+          <a:off x="761110560" y="406440"/>
+          <a:ext cx="813600" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13896,7 +13893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762325560" y="787320"/>
+          <a:off x="762781320" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13941,7 +13938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="775351440" y="405360"/>
+          <a:off x="775815480" y="405360"/>
           <a:ext cx="563040" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13986,7 +13983,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="776510640" y="786240"/>
+          <a:off x="776975400" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14031,8 +14028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="787147200" y="405360"/>
-          <a:ext cx="566280" cy="4680"/>
+          <a:off x="787618440" y="405360"/>
+          <a:ext cx="566640" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14076,7 +14073,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="788306760" y="786240"/>
+          <a:off x="788778360" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14121,7 +14118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="798945120" y="405360"/>
+          <a:off x="799423920" y="405360"/>
           <a:ext cx="563400" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14166,7 +14163,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800105040" y="786240"/>
+          <a:off x="800584560" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14211,8 +14208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812288160" y="406440"/>
-          <a:ext cx="732600" cy="5040"/>
+          <a:off x="812774880" y="406440"/>
+          <a:ext cx="733680" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14256,7 +14253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="813790080" y="787320"/>
+          <a:off x="814277880" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14301,7 +14298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825528600" y="405360"/>
+          <a:off x="826023960" y="405360"/>
           <a:ext cx="507240" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14346,7 +14343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="826572960" y="786240"/>
+          <a:off x="827069040" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14391,8 +14388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="836157240" y="405360"/>
-          <a:ext cx="510120" cy="4680"/>
+          <a:off x="836658720" y="405360"/>
+          <a:ext cx="510840" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14436,7 +14433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="837201960" y="786240"/>
+          <a:off x="837704160" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14481,7 +14478,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="846789120" y="405360"/>
+          <a:off x="847297800" y="405360"/>
           <a:ext cx="507600" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14526,7 +14523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847833120" y="786240"/>
+          <a:off x="848342520" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14571,8 +14568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="859477320" y="406440"/>
-          <a:ext cx="733320" cy="5040"/>
+          <a:off x="859993560" y="406440"/>
+          <a:ext cx="734040" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14616,7 +14613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="860979960" y="787320"/>
+          <a:off x="861496920" y="787320"/>
           <a:ext cx="0" cy="1498680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14661,7 +14658,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="872717400" y="405360"/>
+          <a:off x="873241920" y="405360"/>
           <a:ext cx="507240" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14706,7 +14703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="873762480" y="786240"/>
+          <a:off x="874287720" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14751,8 +14748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="883346760" y="405360"/>
-          <a:ext cx="509760" cy="4680"/>
+          <a:off x="883877400" y="405360"/>
+          <a:ext cx="510840" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14796,7 +14793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="884391480" y="786240"/>
+          <a:off x="884923200" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14841,7 +14838,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="893978280" y="405360"/>
+          <a:off x="894516120" y="405360"/>
           <a:ext cx="507600" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14886,7 +14883,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895022640" y="786240"/>
+          <a:off x="895561200" y="786240"/>
           <a:ext cx="0" cy="1428840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14919,15 +14916,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:colOff>274680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14936,8 +14933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13899240" y="812520"/>
-          <a:ext cx="6527520" cy="6257160"/>
+          <a:off x="13899600" y="812880"/>
+          <a:ext cx="6526800" cy="6256440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15054,10 +15051,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="A41:G45 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.33"/>
@@ -15173,10 +15170,10 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A41:G45 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="83.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.67"/>
@@ -15502,11 +15499,11 @@
   </sheetPr>
   <dimension ref="A1:AJS3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GE12" activeCellId="0" sqref="GE12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GE12" activeCellId="1" sqref="A41:G45 GE12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.17"/>
@@ -18447,10 +18444,10 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A41:G45 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.84"/>
@@ -18772,10 +18769,10 @@
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="A41:G45 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.99"/>
@@ -24567,10 +24564,10 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="1" sqref="A41:G45 C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.17"/>
@@ -25376,10 +25373,10 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="A41:G45 A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.33"/>
@@ -26092,10 +26089,10 @@
   <dimension ref="A1:AGG6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="ABV1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="ABW17" activeCellId="0" sqref="ABW17"/>
+      <selection pane="topLeft" activeCell="ABW17" activeCellId="1" sqref="A41:G45 ABW17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -39156,11 +39153,11 @@
   </sheetPr>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.66"/>
@@ -39621,134 +39618,64 @@
       </c>
       <c r="H40" s="76"/>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="72" t="s">
-        <v>113</v>
-      </c>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
       <c r="H41" s="32"/>
       <c r="AW41" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="72" t="s">
-        <v>113</v>
-      </c>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="32"/>
       <c r="AW42" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="72" t="s">
-        <v>113</v>
-      </c>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
       <c r="AW43" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" s="72" t="s">
-        <v>113</v>
-      </c>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
       <c r="AW44" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="72" t="s">
-        <v>113</v>
-      </c>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
       <c r="AW45" s="0" t="s">
         <v>77</v>
       </c>
